--- a/nebula-protostar/src/main/resources/excel/return_order_list_export.xlsx
+++ b/nebula-protostar/src/main/resources/excel/return_order_list_export.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>退货单列表</t>
   </si>
@@ -63,17 +63,23 @@
   </si>
   <si>
     <t>退换货类型</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -727,21 +733,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1062,111 +1105,187 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:O4"/>
+  <dimension ref="A2:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/nebula-protostar/src/main/resources/excel/return_order_list_export.xlsx
+++ b/nebula-protostar/src/main/resources/excel/return_order_list_export.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="C1"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>退货单列表</t>
   </si>
@@ -29,16 +29,7 @@
     <t>退换货订单平台订单编码</t>
   </si>
   <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>商品款号</t>
-  </si>
-  <si>
     <t>退款金额</t>
-  </si>
-  <si>
-    <t>数量</t>
   </si>
   <si>
     <t>订单状态</t>
@@ -72,14 +63,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,13 +93,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -133,44 +116,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -196,6 +141,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -212,14 +165,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,21 +232,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +258,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,66 +432,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,96 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,137 +593,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,27 +733,18 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,17 +754,11 @@
     <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1105,191 +1080,161 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:O8"/>
+  <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="10" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:12">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="L5" s="11"/>
     </row>
-    <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="15"/>
+    <row r="6" customHeight="1" spans="1:12">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="11"/>
     </row>
-    <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="15"/>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="15"/>
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:O3"/>
+    <mergeCell ref="A2:L3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/nebula-protostar/src/main/resources/excel/return_order_list_export.xlsx
+++ b/nebula-protostar/src/main/resources/excel/return_order_list_export.xlsx
@@ -20,13 +20,13 @@
     <t>退货单列表</t>
   </si>
   <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>登录名</t>
+  </si>
+  <si>
     <t>OMS退货编号</t>
-  </si>
-  <si>
-    <t>登录名</t>
-  </si>
-  <si>
-    <t>退换货订单平台订单编码</t>
   </si>
   <si>
     <t>退款金额</t>
@@ -64,12 +64,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -93,9 +93,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,41 +162,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,87 +236,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -258,43 +258,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,79 +408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,54 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +476,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,23 +542,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,39 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1083,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
